--- a/ActionRPG/Action/Assets/3.Arts/0.Table/ItemTable.xlsx
+++ b/ActionRPG/Action/Assets/3.Arts/0.Table/ItemTable.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="20475" windowHeight="8070"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,67 +84,90 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초급 목걸이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초급 인형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초급 퓨즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초급 부스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초급 실린더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중급 퓨즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeginnerFuse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeginnerBoostere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beginnercylinder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초급 반지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeginnerRing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeginnerNecklace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeginnerDoll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중급 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Weapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Module</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초급 목걸이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초급 인형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초급 퓨즈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초급 부스터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초급 실린더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중급 퓨즈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeginnerFuse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeginnerBoostere</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Beginnercylinder</t>
+  </si>
+  <si>
+    <t>Weapon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -152,19 +175,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>초급 반지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeginnerRing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeginnerNecklace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeginnerDoll</t>
+    <t>SeniorSword</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -553,16 +564,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -677,7 +688,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
@@ -700,13 +711,13 @@
         <v>211000</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -726,13 +737,13 @@
         <v>212000</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -752,13 +763,13 @@
         <v>213000</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -778,13 +789,13 @@
         <v>211100</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -804,13 +815,13 @@
         <v>221000</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -830,13 +841,13 @@
         <v>222000</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -848,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -856,13 +867,13 @@
         <v>223000</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -875,6 +886,32 @@
       </c>
       <c r="H13" s="1">
         <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>200001</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>200</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/ActionRPG/Action/Assets/3.Arts/0.Table/ItemTable.xlsx
+++ b/ActionRPG/Action/Assets/3.Arts/0.Table/ItemTable.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="20475" windowHeight="8070"/>
@@ -536,12 +536,12 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.375" style="1" bestFit="1" customWidth="1"/>
